--- a/MappingPosologie/ig/PN13-FHIR-prescmed-patient-id-seul-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-patient-id-seul-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T16:15:47+00:00</t>
+    <t>2024-12-26T10:27:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/FrInpatientMedicationRequest</t>
+    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
   </si>
   <si>
     <t>Display</t>
